--- a/database/industries/darou/deabid/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/deabid/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49E16BE-25CE-4D8F-BCF8-4E26130E4478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C7A81-FCDC-4168-9A3A-8893BC24CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="69">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,18 @@
     <t>مقدار فروش</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/03</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/06</t>
   </si>
   <si>
@@ -50,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/06</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -690,16 +705,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I110"/>
+  <dimension ref="B1:N110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,8 +723,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,8 +740,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -732,8 +757,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -742,8 +772,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -754,8 +789,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -766,8 +806,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -776,8 +821,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -798,8 +848,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -808,10 +873,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -820,200 +890,325 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+        <v>18</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
         <v>298</v>
       </c>
-      <c r="H11" s="11">
+      <c r="L11" s="11">
         <v>27453</v>
       </c>
-      <c r="I11" s="11">
+      <c r="M11" s="11">
         <v>43164</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N11" s="11">
+        <v>225895</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>44994</v>
+      </c>
+      <c r="F12" s="13">
+        <v>38517</v>
+      </c>
+      <c r="G12" s="13">
+        <v>49524</v>
+      </c>
+      <c r="H12" s="13">
+        <v>62839</v>
+      </c>
+      <c r="I12" s="13">
         <v>890291</v>
       </c>
-      <c r="F12" s="13">
+      <c r="J12" s="13">
         <v>-833546</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>1754078</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2188354</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1206325</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1274388</v>
+      </c>
+      <c r="I13" s="11">
         <v>1496152</v>
       </c>
-      <c r="F13" s="11">
+      <c r="J13" s="11">
         <v>5041271</v>
       </c>
-      <c r="G13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>1562397</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1611001</v>
+      </c>
+      <c r="G14" s="13">
+        <v>1673064</v>
+      </c>
+      <c r="H14" s="13">
+        <v>1492833</v>
+      </c>
+      <c r="I14" s="13">
         <v>3527502</v>
       </c>
-      <c r="F14" s="13">
+      <c r="J14" s="13">
         <v>669462</v>
       </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13">
         <v>1904617</v>
       </c>
-      <c r="H14" s="13">
+      <c r="L14" s="13">
         <v>1921714</v>
       </c>
-      <c r="I14" s="13">
+      <c r="M14" s="13">
         <v>2004226</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N14" s="13">
+        <v>2080579</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>6438071</v>
+      </c>
+      <c r="F15" s="11">
+        <v>5835750</v>
+      </c>
+      <c r="G15" s="11">
+        <v>3908645</v>
+      </c>
+      <c r="H15" s="11">
+        <v>3493596</v>
+      </c>
+      <c r="I15" s="11">
         <v>10178893</v>
       </c>
-      <c r="F15" s="11">
+      <c r="J15" s="11">
         <v>2816519</v>
       </c>
-      <c r="G15" s="11">
+      <c r="K15" s="11">
         <v>8128657</v>
       </c>
-      <c r="H15" s="11">
+      <c r="L15" s="11">
         <v>6425521</v>
       </c>
-      <c r="I15" s="11">
+      <c r="M15" s="11">
         <v>7316938</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N15" s="11">
+        <v>9319998</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>13</v>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
         <v>4336672</v>
       </c>
-      <c r="H17" s="11">
+      <c r="L17" s="11">
         <v>4406744</v>
       </c>
-      <c r="I17" s="11">
+      <c r="M17" s="11">
         <v>3552076</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N17" s="11">
+        <v>7024890</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>9799540</v>
+      </c>
+      <c r="F18" s="15">
+        <v>9673622</v>
+      </c>
+      <c r="G18" s="15">
+        <v>6837558</v>
+      </c>
+      <c r="H18" s="15">
+        <v>6323656</v>
+      </c>
+      <c r="I18" s="15">
         <v>16092838</v>
       </c>
-      <c r="F18" s="15">
+      <c r="J18" s="15">
         <v>7693706</v>
       </c>
-      <c r="G18" s="15">
+      <c r="K18" s="15">
         <v>14370244</v>
       </c>
-      <c r="H18" s="15">
+      <c r="L18" s="15">
         <v>12781432</v>
       </c>
-      <c r="I18" s="15">
+      <c r="M18" s="15">
         <v>12916404</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N18" s="15">
+        <v>18651362</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1022,58 +1217,93 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11">
         <v>0</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1092,10 +1322,25 @@
       <c r="I22" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17">
+        <v>0</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -1104,10 +1349,15 @@
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -1126,34 +1376,64 @@
       <c r="I24" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="17">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
         <v>0</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="15">
+        <v>0</v>
+      </c>
+      <c r="H25" s="15">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
+        <v>0</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -1163,8 +1443,8 @@
       <c r="F26" s="17">
         <v>0</v>
       </c>
-      <c r="G26" s="17" t="s">
-        <v>13</v>
+      <c r="G26" s="17">
+        <v>0</v>
       </c>
       <c r="H26" s="17">
         <v>0</v>
@@ -1172,30 +1452,60 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="17">
+        <v>0</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>0</v>
+      </c>
+      <c r="N26" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
+        <v>9799540</v>
+      </c>
+      <c r="F27" s="15">
+        <v>9673622</v>
+      </c>
+      <c r="G27" s="15">
+        <v>6837558</v>
+      </c>
+      <c r="H27" s="15">
+        <v>6323656</v>
+      </c>
+      <c r="I27" s="15">
         <v>16092838</v>
       </c>
-      <c r="F27" s="15">
+      <c r="J27" s="15">
         <v>7693706</v>
       </c>
-      <c r="G27" s="15">
+      <c r="K27" s="15">
         <v>14370244</v>
       </c>
-      <c r="H27" s="15">
+      <c r="L27" s="15">
         <v>12781432</v>
       </c>
-      <c r="I27" s="15">
+      <c r="M27" s="15">
         <v>12916404</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N27" s="15">
+        <v>18651362</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1204,8 +1514,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1214,8 +1529,13 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1224,10 +1544,15 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -1246,8 +1571,23 @@
       <c r="I31" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N31" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1256,10 +1596,15 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1268,200 +1613,325 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="11">
+        <v>18</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="11">
         <v>181</v>
       </c>
-      <c r="H34" s="11">
+      <c r="L34" s="11">
         <v>16333</v>
       </c>
-      <c r="I34" s="11">
+      <c r="M34" s="11">
         <v>51558</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N34" s="11">
+        <v>148571</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
+        <v>27275</v>
+      </c>
+      <c r="F35" s="13">
+        <v>21921</v>
+      </c>
+      <c r="G35" s="13">
+        <v>28038</v>
+      </c>
+      <c r="H35" s="13">
+        <v>37998</v>
+      </c>
+      <c r="I35" s="13">
         <v>28447</v>
       </c>
-      <c r="F35" s="13">
+      <c r="J35" s="13">
         <v>4539</v>
       </c>
-      <c r="G35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
+        <v>125837</v>
+      </c>
+      <c r="F36" s="11">
+        <v>207970</v>
+      </c>
+      <c r="G36" s="11">
+        <v>102821</v>
+      </c>
+      <c r="H36" s="11">
+        <v>116683</v>
+      </c>
+      <c r="I36" s="11">
         <v>217280</v>
       </c>
-      <c r="F36" s="11">
+      <c r="J36" s="11">
         <v>384582</v>
       </c>
-      <c r="G36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
+        <v>666004</v>
+      </c>
+      <c r="F37" s="13">
+        <v>734925</v>
+      </c>
+      <c r="G37" s="13">
+        <v>1093155</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1032157</v>
+      </c>
+      <c r="I37" s="13">
         <v>1504000</v>
       </c>
-      <c r="F37" s="13">
+      <c r="J37" s="13">
         <v>1467258</v>
       </c>
-      <c r="G37" s="13">
+      <c r="K37" s="13">
         <v>1404538</v>
       </c>
-      <c r="H37" s="13">
+      <c r="L37" s="13">
         <v>1555505</v>
       </c>
-      <c r="I37" s="13">
+      <c r="M37" s="13">
         <v>1893337</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N37" s="13">
+        <v>1883974</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>3124787</v>
+      </c>
+      <c r="F38" s="11">
+        <v>3846374</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3319082</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3293084</v>
+      </c>
+      <c r="I38" s="11">
         <v>5153096</v>
       </c>
-      <c r="F38" s="11">
+      <c r="J38" s="11">
         <v>5776403</v>
       </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11">
         <v>6379298</v>
       </c>
-      <c r="H38" s="11">
+      <c r="L38" s="11">
         <v>6098717</v>
       </c>
-      <c r="I38" s="11">
+      <c r="M38" s="11">
         <v>9151161</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N38" s="11">
+        <v>13001497</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D39" s="13"/>
-      <c r="E39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>13</v>
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="11">
+        <v>18</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
         <v>424586</v>
       </c>
-      <c r="H40" s="11">
+      <c r="L40" s="11">
         <v>486142</v>
       </c>
-      <c r="I40" s="11">
+      <c r="M40" s="11">
         <v>443210</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N40" s="11">
+        <v>1082790</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
+        <v>3943903</v>
+      </c>
+      <c r="F41" s="15">
+        <v>4811190</v>
+      </c>
+      <c r="G41" s="15">
+        <v>4543096</v>
+      </c>
+      <c r="H41" s="15">
+        <v>4479922</v>
+      </c>
+      <c r="I41" s="15">
         <v>6902823</v>
       </c>
-      <c r="F41" s="15">
+      <c r="J41" s="15">
         <v>7632782</v>
       </c>
-      <c r="G41" s="15">
+      <c r="K41" s="15">
         <v>8208603</v>
       </c>
-      <c r="H41" s="15">
+      <c r="L41" s="15">
         <v>8156697</v>
       </c>
-      <c r="I41" s="15">
+      <c r="M41" s="15">
         <v>11539266</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N41" s="15">
+        <v>16116832</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -1470,58 +1940,93 @@
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
         <v>0</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F43" s="11">
+        <v>0</v>
+      </c>
+      <c r="G43" s="11">
+        <v>0</v>
+      </c>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <v>0</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="13">
         <v>0</v>
       </c>
-      <c r="F44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
@@ -1540,10 +2045,25 @@
       <c r="I45" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="17">
+        <v>0</v>
+      </c>
+      <c r="K45" s="17">
+        <v>0</v>
+      </c>
+      <c r="L45" s="17">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17">
+        <v>0</v>
+      </c>
+      <c r="N45" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C46" s="19"/>
       <c r="D46" s="19"/>
@@ -1552,10 +2072,15 @@
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="17"/>
@@ -1574,37 +2099,67 @@
       <c r="I47" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="17">
+        <v>0</v>
+      </c>
+      <c r="K47" s="17">
+        <v>0</v>
+      </c>
+      <c r="L47" s="17">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17">
+        <v>0</v>
+      </c>
+      <c r="N47" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
         <v>0</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <v>0</v>
+      </c>
+      <c r="I48" s="15">
+        <v>0</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="17">
@@ -1613,8 +2168,8 @@
       <c r="F49" s="17">
         <v>0</v>
       </c>
-      <c r="G49" s="17" t="s">
-        <v>13</v>
+      <c r="G49" s="17">
+        <v>0</v>
       </c>
       <c r="H49" s="17">
         <v>0</v>
@@ -1622,30 +2177,60 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="17">
+        <v>0</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="17">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17">
+        <v>0</v>
+      </c>
+      <c r="N49" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
+        <v>3943903</v>
+      </c>
+      <c r="F50" s="15">
+        <v>4811190</v>
+      </c>
+      <c r="G50" s="15">
+        <v>4543096</v>
+      </c>
+      <c r="H50" s="15">
+        <v>4479922</v>
+      </c>
+      <c r="I50" s="15">
         <v>6902823</v>
       </c>
-      <c r="F50" s="15">
+      <c r="J50" s="15">
         <v>7632782</v>
       </c>
-      <c r="G50" s="15">
+      <c r="K50" s="15">
         <v>8208603</v>
       </c>
-      <c r="H50" s="15">
+      <c r="L50" s="15">
         <v>8156697</v>
       </c>
-      <c r="I50" s="15">
+      <c r="M50" s="15">
         <v>11539266</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N50" s="15">
+        <v>16116832</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1654,8 +2239,13 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1664,8 +2254,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1674,10 +2269,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
@@ -1696,8 +2296,23 @@
       <c r="I54" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N54" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1706,10 +2321,15 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -1718,178 +2338,288 @@
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
       <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" s="11">
+        <v>18</v>
+      </c>
+      <c r="G57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="11">
         <v>607383</v>
       </c>
-      <c r="H57" s="11">
+      <c r="L57" s="11">
         <v>594944</v>
       </c>
-      <c r="I57" s="11">
+      <c r="M57" s="11">
         <v>1194468</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N57" s="11">
+        <v>657699</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>606192</v>
+      </c>
+      <c r="F58" s="13">
+        <v>569125</v>
+      </c>
+      <c r="G58" s="13">
+        <v>566150</v>
+      </c>
+      <c r="H58" s="13">
+        <v>604688</v>
+      </c>
+      <c r="I58" s="13">
         <v>31952</v>
       </c>
-      <c r="F58" s="13">
+      <c r="J58" s="13">
         <v>-5445</v>
       </c>
-      <c r="G58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
+        <v>71740</v>
+      </c>
+      <c r="F59" s="11">
+        <v>95035</v>
+      </c>
+      <c r="G59" s="11">
+        <v>85235</v>
+      </c>
+      <c r="H59" s="11">
+        <v>91560</v>
+      </c>
+      <c r="I59" s="11">
         <v>145226</v>
       </c>
-      <c r="F59" s="11">
+      <c r="J59" s="11">
         <v>76287</v>
       </c>
-      <c r="G59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
+        <v>426271</v>
+      </c>
+      <c r="F60" s="13">
+        <v>456192</v>
+      </c>
+      <c r="G60" s="13">
+        <v>653385</v>
+      </c>
+      <c r="H60" s="13">
+        <v>691408</v>
+      </c>
+      <c r="I60" s="13">
         <v>426364</v>
       </c>
-      <c r="F60" s="13">
+      <c r="J60" s="13">
         <v>2191697</v>
       </c>
-      <c r="G60" s="13">
+      <c r="K60" s="13">
         <v>737439</v>
       </c>
-      <c r="H60" s="13">
+      <c r="L60" s="13">
         <v>809436</v>
       </c>
-      <c r="I60" s="13">
+      <c r="M60" s="13">
         <v>944672</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N60" s="13">
+        <v>905505</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>485361</v>
+      </c>
+      <c r="F61" s="11">
+        <v>659105</v>
+      </c>
+      <c r="G61" s="11">
+        <v>849164</v>
+      </c>
+      <c r="H61" s="11">
+        <v>942606</v>
+      </c>
+      <c r="I61" s="11">
         <v>506253</v>
       </c>
-      <c r="F61" s="11">
+      <c r="J61" s="11">
         <v>2050901</v>
       </c>
-      <c r="G61" s="11">
+      <c r="K61" s="11">
         <v>784791</v>
       </c>
-      <c r="H61" s="11">
+      <c r="L61" s="11">
         <v>949140</v>
       </c>
-      <c r="I61" s="11">
+      <c r="M61" s="11">
         <v>1250682</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N61" s="11">
+        <v>1395011</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="11">
+        <v>18</v>
+      </c>
+      <c r="G63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11">
         <v>97906</v>
       </c>
-      <c r="H63" s="11">
+      <c r="L63" s="11">
         <v>110318</v>
       </c>
-      <c r="I63" s="11">
+      <c r="M63" s="11">
         <v>124775</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N63" s="11">
+        <v>154136</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1898,56 +2628,91 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1956,8 +2721,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1966,8 +2736,13 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1976,10 +2751,15 @@
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B70" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -1998,8 +2778,23 @@
       <c r="I70" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2008,10 +2803,15 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -2020,200 +2820,325 @@
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" s="11">
+        <v>18</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11">
         <v>-190</v>
       </c>
-      <c r="H73" s="11">
+      <c r="L73" s="11">
         <v>-6225</v>
       </c>
-      <c r="I73" s="11">
+      <c r="M73" s="11">
         <v>-41330</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="11">
+        <v>-251217</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
+        <v>-27415</v>
+      </c>
+      <c r="F74" s="13">
+        <v>-23227</v>
+      </c>
+      <c r="G74" s="13">
+        <v>-34457</v>
+      </c>
+      <c r="H74" s="13">
+        <v>-32413</v>
+      </c>
+      <c r="I74" s="13">
         <v>-30760</v>
       </c>
-      <c r="F74" s="13">
+      <c r="J74" s="13">
         <v>-4972</v>
       </c>
-      <c r="G74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I74" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
+        <v>-86304</v>
+      </c>
+      <c r="F75" s="11">
+        <v>-117469</v>
+      </c>
+      <c r="G75" s="11">
+        <v>-64253</v>
+      </c>
+      <c r="H75" s="11">
+        <v>-83410</v>
+      </c>
+      <c r="I75" s="11">
         <v>-170311</v>
       </c>
-      <c r="F75" s="11">
+      <c r="J75" s="11">
         <v>-241459</v>
       </c>
-      <c r="G75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N75" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
+        <v>-336817</v>
+      </c>
+      <c r="F76" s="13">
+        <v>-392524</v>
+      </c>
+      <c r="G76" s="13">
+        <v>-521514</v>
+      </c>
+      <c r="H76" s="13">
+        <v>-490960</v>
+      </c>
+      <c r="I76" s="13">
         <v>-886140</v>
       </c>
-      <c r="F76" s="13">
+      <c r="J76" s="13">
         <v>-739372</v>
       </c>
-      <c r="G76" s="13">
+      <c r="K76" s="13">
         <v>-712295</v>
       </c>
-      <c r="H76" s="13">
+      <c r="L76" s="13">
         <v>-763786</v>
       </c>
-      <c r="I76" s="13">
+      <c r="M76" s="13">
         <v>-886703</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N76" s="13">
+        <v>-915089</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
+        <v>-1034862</v>
+      </c>
+      <c r="F77" s="11">
+        <v>-1396146</v>
+      </c>
+      <c r="G77" s="11">
+        <v>-1119778</v>
+      </c>
+      <c r="H77" s="11">
+        <v>-1144221</v>
+      </c>
+      <c r="I77" s="11">
         <v>-1862850</v>
       </c>
-      <c r="F77" s="11">
+      <c r="J77" s="11">
         <v>-2047298</v>
       </c>
-      <c r="G77" s="11">
+      <c r="K77" s="11">
         <v>-2438638</v>
       </c>
-      <c r="H77" s="11">
+      <c r="L77" s="11">
         <v>-2354160</v>
       </c>
-      <c r="I77" s="11">
+      <c r="M77" s="11">
         <v>-2678521</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N77" s="11">
+        <v>-3945435</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D78" s="13"/>
-      <c r="E78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="13" t="s">
-        <v>13</v>
+      <c r="E78" s="13">
+        <v>0</v>
+      </c>
+      <c r="F78" s="13">
+        <v>0</v>
+      </c>
+      <c r="G78" s="13">
+        <v>0</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="11">
+        <v>18</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11">
         <v>-298100</v>
       </c>
-      <c r="H79" s="11">
+      <c r="L79" s="11">
         <v>-384457</v>
       </c>
-      <c r="I79" s="11">
+      <c r="M79" s="11">
         <v>-347823</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N79" s="11">
+        <v>-591350</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
+        <v>-1485398</v>
+      </c>
+      <c r="F80" s="15">
+        <v>-1929366</v>
+      </c>
+      <c r="G80" s="15">
+        <v>-1740002</v>
+      </c>
+      <c r="H80" s="15">
+        <v>-1751004</v>
+      </c>
+      <c r="I80" s="15">
         <v>-2950061</v>
       </c>
-      <c r="F80" s="15">
+      <c r="J80" s="15">
         <v>-3033101</v>
       </c>
-      <c r="G80" s="15">
+      <c r="K80" s="15">
         <v>-3449223</v>
       </c>
-      <c r="H80" s="15">
+      <c r="L80" s="15">
         <v>-3508628</v>
       </c>
-      <c r="I80" s="15">
+      <c r="M80" s="15">
         <v>-3954377</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N80" s="15">
+        <v>-5703091</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2222,58 +3147,93 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
         <v>0</v>
       </c>
-      <c r="F82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F82" s="11">
+        <v>0</v>
+      </c>
+      <c r="G82" s="11">
+        <v>0</v>
+      </c>
+      <c r="H82" s="11">
+        <v>0</v>
+      </c>
+      <c r="I82" s="11">
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N82" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
         <v>0</v>
       </c>
-      <c r="F83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F83" s="13">
+        <v>0</v>
+      </c>
+      <c r="G83" s="13">
+        <v>0</v>
+      </c>
+      <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -2292,10 +3252,25 @@
       <c r="I84" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="17">
+        <v>0</v>
+      </c>
+      <c r="K84" s="17">
+        <v>0</v>
+      </c>
+      <c r="L84" s="17">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17">
+        <v>0</v>
+      </c>
+      <c r="N84" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
@@ -2304,10 +3279,15 @@
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17"/>
@@ -2326,37 +3306,67 @@
       <c r="I86" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="17">
+        <v>0</v>
+      </c>
+      <c r="K86" s="17">
+        <v>0</v>
+      </c>
+      <c r="L86" s="17">
+        <v>0</v>
+      </c>
+      <c r="M86" s="17">
+        <v>0</v>
+      </c>
+      <c r="N86" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="15"/>
       <c r="E87" s="15">
         <v>0</v>
       </c>
-      <c r="F87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H87" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I87" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
+      <c r="G87" s="15">
+        <v>0</v>
+      </c>
+      <c r="H87" s="15">
+        <v>0</v>
+      </c>
+      <c r="I87" s="15">
+        <v>0</v>
+      </c>
+      <c r="J87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N87" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="17"/>
       <c r="E88" s="17">
@@ -2365,8 +3375,8 @@
       <c r="F88" s="17">
         <v>0</v>
       </c>
-      <c r="G88" s="17" t="s">
-        <v>13</v>
+      <c r="G88" s="17">
+        <v>0</v>
       </c>
       <c r="H88" s="17">
         <v>0</v>
@@ -2374,30 +3384,60 @@
       <c r="I88" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="17">
+        <v>0</v>
+      </c>
+      <c r="K88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L88" s="17">
+        <v>0</v>
+      </c>
+      <c r="M88" s="17">
+        <v>0</v>
+      </c>
+      <c r="N88" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
+        <v>-1485398</v>
+      </c>
+      <c r="F89" s="15">
+        <v>-1929366</v>
+      </c>
+      <c r="G89" s="15">
+        <v>-1740002</v>
+      </c>
+      <c r="H89" s="15">
+        <v>-1751004</v>
+      </c>
+      <c r="I89" s="15">
         <v>-2950061</v>
       </c>
-      <c r="F89" s="15">
+      <c r="J89" s="15">
         <v>-3033101</v>
       </c>
-      <c r="G89" s="15">
+      <c r="K89" s="15">
         <v>-3449223</v>
       </c>
-      <c r="H89" s="15">
+      <c r="L89" s="15">
         <v>-3508628</v>
       </c>
-      <c r="I89" s="15">
+      <c r="M89" s="15">
         <v>-3954377</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N89" s="15">
+        <v>-5703091</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2406,8 +3446,13 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -2416,8 +3461,13 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -2426,10 +3476,15 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-    </row>
-    <row r="93" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B93" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2448,8 +3503,23 @@
       <c r="I93" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N93" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2458,10 +3528,15 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -2470,200 +3545,325 @@
       <c r="G95" s="9"/>
       <c r="H95" s="9"/>
       <c r="I95" s="9"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D96" s="11"/>
       <c r="E96" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="11">
+        <v>18</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K96" s="11">
         <v>-9</v>
       </c>
-      <c r="H96" s="11">
+      <c r="L96" s="11">
         <v>10108</v>
       </c>
-      <c r="I96" s="11">
+      <c r="M96" s="11">
         <v>10228</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N96" s="11">
+        <v>-102646</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
+        <v>-140</v>
+      </c>
+      <c r="F97" s="13">
+        <v>-1306</v>
+      </c>
+      <c r="G97" s="13">
+        <v>-6419</v>
+      </c>
+      <c r="H97" s="13">
+        <v>5585</v>
+      </c>
+      <c r="I97" s="13">
         <v>-2313</v>
       </c>
-      <c r="F97" s="13">
+      <c r="J97" s="13">
         <v>-433</v>
       </c>
-      <c r="G97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
+        <v>39533</v>
+      </c>
+      <c r="F98" s="11">
+        <v>90501</v>
+      </c>
+      <c r="G98" s="11">
+        <v>38568</v>
+      </c>
+      <c r="H98" s="11">
+        <v>33273</v>
+      </c>
+      <c r="I98" s="11">
         <v>46969</v>
       </c>
-      <c r="F98" s="11">
+      <c r="J98" s="11">
         <v>143123</v>
       </c>
-      <c r="G98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
+        <v>329187</v>
+      </c>
+      <c r="F99" s="13">
+        <v>342401</v>
+      </c>
+      <c r="G99" s="13">
+        <v>571641</v>
+      </c>
+      <c r="H99" s="13">
+        <v>541197</v>
+      </c>
+      <c r="I99" s="13">
         <v>617860</v>
       </c>
-      <c r="F99" s="13">
+      <c r="J99" s="13">
         <v>727886</v>
       </c>
-      <c r="G99" s="13">
+      <c r="K99" s="13">
         <v>692243</v>
       </c>
-      <c r="H99" s="13">
+      <c r="L99" s="13">
         <v>791719</v>
       </c>
-      <c r="I99" s="13">
+      <c r="M99" s="13">
         <v>1006634</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N99" s="13">
+        <v>968885</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>2089925</v>
+      </c>
+      <c r="F100" s="11">
+        <v>2450228</v>
+      </c>
+      <c r="G100" s="11">
+        <v>2199304</v>
+      </c>
+      <c r="H100" s="11">
+        <v>2148863</v>
+      </c>
+      <c r="I100" s="11">
         <v>3290245</v>
       </c>
-      <c r="F100" s="11">
+      <c r="J100" s="11">
         <v>3729105</v>
       </c>
-      <c r="G100" s="11">
+      <c r="K100" s="11">
         <v>3940660</v>
       </c>
-      <c r="H100" s="11">
+      <c r="L100" s="11">
         <v>3744557</v>
       </c>
-      <c r="I100" s="11">
+      <c r="M100" s="11">
         <v>6472640</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N100" s="11">
+        <v>9056062</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D101" s="13"/>
-      <c r="E101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>13</v>
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13">
+        <v>0</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="11">
+        <v>18</v>
+      </c>
+      <c r="G102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J102" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K102" s="11">
         <v>126486</v>
       </c>
-      <c r="H102" s="11">
+      <c r="L102" s="11">
         <v>101685</v>
       </c>
-      <c r="I102" s="11">
+      <c r="M102" s="11">
         <v>95387</v>
       </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N102" s="11">
+        <v>491440</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
+        <v>2458505</v>
+      </c>
+      <c r="F103" s="15">
+        <v>2881824</v>
+      </c>
+      <c r="G103" s="15">
+        <v>2803094</v>
+      </c>
+      <c r="H103" s="15">
+        <v>2728918</v>
+      </c>
+      <c r="I103" s="15">
         <v>3952761</v>
       </c>
-      <c r="F103" s="15">
+      <c r="J103" s="15">
         <v>4599681</v>
       </c>
-      <c r="G103" s="15">
+      <c r="K103" s="15">
         <v>4759380</v>
       </c>
-      <c r="H103" s="15">
+      <c r="L103" s="15">
         <v>4648069</v>
       </c>
-      <c r="I103" s="15">
+      <c r="M103" s="15">
         <v>7584889</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N103" s="15">
+        <v>10413741</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C104" s="9"/>
       <c r="D104" s="9"/>
@@ -2672,58 +3872,93 @@
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D105" s="11"/>
       <c r="E105" s="11">
         <v>0</v>
       </c>
-      <c r="F105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H105" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I105" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F105" s="11">
+        <v>0</v>
+      </c>
+      <c r="G105" s="11">
+        <v>0</v>
+      </c>
+      <c r="H105" s="11">
+        <v>0</v>
+      </c>
+      <c r="I105" s="11">
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N105" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="13">
         <v>0</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F106" s="13">
+        <v>0</v>
+      </c>
+      <c r="G106" s="13">
+        <v>0</v>
+      </c>
+      <c r="H106" s="13">
+        <v>0</v>
+      </c>
+      <c r="I106" s="13">
+        <v>0</v>
+      </c>
+      <c r="J106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="16" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C107" s="17"/>
       <c r="D107" s="17"/>
@@ -2742,10 +3977,25 @@
       <c r="I107" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="17">
+        <v>0</v>
+      </c>
+      <c r="K107" s="17">
+        <v>0</v>
+      </c>
+      <c r="L107" s="17">
+        <v>0</v>
+      </c>
+      <c r="M107" s="17">
+        <v>0</v>
+      </c>
+      <c r="N107" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="18" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C108" s="19"/>
       <c r="D108" s="19"/>
@@ -2754,10 +4004,15 @@
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C109" s="17"/>
       <c r="D109" s="17"/>
@@ -2776,27 +4031,57 @@
       <c r="I109" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="17">
+        <v>0</v>
+      </c>
+      <c r="K109" s="17">
+        <v>0</v>
+      </c>
+      <c r="L109" s="17">
+        <v>0</v>
+      </c>
+      <c r="M109" s="17">
+        <v>0</v>
+      </c>
+      <c r="N109" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15">
+        <v>2458505</v>
+      </c>
+      <c r="F110" s="15">
+        <v>2881824</v>
+      </c>
+      <c r="G110" s="15">
+        <v>2803094</v>
+      </c>
+      <c r="H110" s="15">
+        <v>2728918</v>
+      </c>
+      <c r="I110" s="15">
         <v>3952761</v>
       </c>
-      <c r="F110" s="15">
+      <c r="J110" s="15">
         <v>4599681</v>
       </c>
-      <c r="G110" s="15">
+      <c r="K110" s="15">
         <v>4759380</v>
       </c>
-      <c r="H110" s="15">
+      <c r="L110" s="15">
         <v>4648069</v>
       </c>
-      <c r="I110" s="15">
+      <c r="M110" s="15">
         <v>7584889</v>
+      </c>
+      <c r="N110" s="15">
+        <v>10413741</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/darou/deabid/product/quarterly_seprated.xlsx
+++ b/database/industries/darou/deabid/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\deabid\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80C7A81-FCDC-4168-9A3A-8893BC24CB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4677F0EB-EF0F-4AC9-8D81-0111A23E8CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="69">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل سوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل چهارم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -709,12 +709,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -729,7 +729,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -746,7 +746,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -778,7 +778,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -812,7 +812,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -827,7 +827,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -864,7 +864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -879,7 +879,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -919,23 +919,23 @@
       <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11">
+        <v>298</v>
       </c>
       <c r="K11" s="11">
-        <v>298</v>
+        <v>27453</v>
       </c>
       <c r="L11" s="11">
-        <v>27453</v>
+        <v>43164</v>
       </c>
       <c r="M11" s="11">
-        <v>43164</v>
+        <v>225885</v>
       </c>
       <c r="N11" s="11">
-        <v>225895</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>183995</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -944,23 +944,23 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>44994</v>
+        <v>38517</v>
       </c>
       <c r="F12" s="13">
-        <v>38517</v>
+        <v>49524</v>
       </c>
       <c r="G12" s="13">
-        <v>49524</v>
+        <v>62839</v>
       </c>
       <c r="H12" s="13">
-        <v>62839</v>
+        <v>890291</v>
       </c>
       <c r="I12" s="13">
-        <v>890291</v>
-      </c>
-      <c r="J12" s="13">
         <v>-833546</v>
       </c>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K12" s="13" t="s">
         <v>18</v>
       </c>
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -983,23 +983,23 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>1754078</v>
+        <v>2188354</v>
       </c>
       <c r="F13" s="11">
-        <v>2188354</v>
+        <v>1206325</v>
       </c>
       <c r="G13" s="11">
-        <v>1206325</v>
+        <v>1274388</v>
       </c>
       <c r="H13" s="11">
-        <v>1274388</v>
+        <v>1496152</v>
       </c>
       <c r="I13" s="11">
-        <v>1496152</v>
-      </c>
-      <c r="J13" s="11">
         <v>5041271</v>
       </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -1022,37 +1022,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>1562397</v>
+        <v>1611001</v>
       </c>
       <c r="F14" s="13">
-        <v>1611001</v>
+        <v>1673064</v>
       </c>
       <c r="G14" s="13">
-        <v>1673064</v>
+        <v>1492833</v>
       </c>
       <c r="H14" s="13">
-        <v>1492833</v>
+        <v>3527502</v>
       </c>
       <c r="I14" s="13">
-        <v>3527502</v>
+        <v>669462</v>
       </c>
       <c r="J14" s="13">
-        <v>669462</v>
+        <v>1904617</v>
       </c>
       <c r="K14" s="13">
-        <v>1904617</v>
+        <v>1921714</v>
       </c>
       <c r="L14" s="13">
-        <v>1921714</v>
+        <v>2004226</v>
       </c>
       <c r="M14" s="13">
-        <v>2004226</v>
+        <v>2080579</v>
       </c>
       <c r="N14" s="13">
-        <v>2080579</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1718105</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
@@ -1061,37 +1061,37 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>6438071</v>
+        <v>5835750</v>
       </c>
       <c r="F15" s="11">
-        <v>5835750</v>
+        <v>3908645</v>
       </c>
       <c r="G15" s="11">
-        <v>3908645</v>
+        <v>3493596</v>
       </c>
       <c r="H15" s="11">
-        <v>3493596</v>
+        <v>10178893</v>
       </c>
       <c r="I15" s="11">
-        <v>10178893</v>
+        <v>2816519</v>
       </c>
       <c r="J15" s="11">
-        <v>2816519</v>
+        <v>8128657</v>
       </c>
       <c r="K15" s="11">
-        <v>8128657</v>
+        <v>6425521</v>
       </c>
       <c r="L15" s="11">
-        <v>6425521</v>
+        <v>7316938</v>
       </c>
       <c r="M15" s="11">
-        <v>7316938</v>
+        <v>9319998</v>
       </c>
       <c r="N15" s="11">
-        <v>9319998</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8068170</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>26</v>
       </c>
@@ -1105,8 +1105,8 @@
       <c r="F16" s="13">
         <v>0</v>
       </c>
-      <c r="G16" s="13">
-        <v>0</v>
+      <c r="G16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>18</v>
@@ -1130,7 +1130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>28</v>
       </c>
@@ -1153,60 +1153,60 @@
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>18</v>
+      <c r="J17" s="11">
+        <v>4336672</v>
       </c>
       <c r="K17" s="11">
-        <v>4336672</v>
+        <v>4406744</v>
       </c>
       <c r="L17" s="11">
-        <v>4406744</v>
+        <v>3552076</v>
       </c>
       <c r="M17" s="11">
-        <v>3552076</v>
+        <v>7024890</v>
       </c>
       <c r="N17" s="11">
-        <v>7024890</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4643053</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>9799540</v>
+        <v>9673622</v>
       </c>
       <c r="F18" s="15">
-        <v>9673622</v>
+        <v>6837558</v>
       </c>
       <c r="G18" s="15">
-        <v>6837558</v>
+        <v>6323656</v>
       </c>
       <c r="H18" s="15">
-        <v>6323656</v>
+        <v>16092838</v>
       </c>
       <c r="I18" s="15">
-        <v>16092838</v>
+        <v>7693706</v>
       </c>
       <c r="J18" s="15">
-        <v>7693706</v>
+        <v>14370244</v>
       </c>
       <c r="K18" s="15">
-        <v>14370244</v>
+        <v>12781432</v>
       </c>
       <c r="L18" s="15">
-        <v>12781432</v>
+        <v>12916404</v>
       </c>
       <c r="M18" s="15">
-        <v>12916404</v>
+        <v>18651352</v>
       </c>
       <c r="N18" s="15">
-        <v>18651362</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14613323</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
         <v>31</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>23</v>
       </c>
@@ -1243,8 +1243,8 @@
       <c r="H20" s="11">
         <v>0</v>
       </c>
-      <c r="I20" s="11">
-        <v>0</v>
+      <c r="I20" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>18</v>
@@ -1262,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
@@ -1282,8 +1282,8 @@
       <c r="H21" s="13">
         <v>0</v>
       </c>
-      <c r="I21" s="13">
-        <v>0</v>
+      <c r="I21" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J21" s="13" t="s">
         <v>18</v>
@@ -1301,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>33</v>
       </c>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="18" t="s">
         <v>34</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>36</v>
       </c>
@@ -1412,8 +1412,8 @@
       <c r="H25" s="15">
         <v>0</v>
       </c>
-      <c r="I25" s="15">
-        <v>0</v>
+      <c r="I25" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>18</v>
@@ -1431,7 +1431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>38</v>
       </c>
@@ -1452,11 +1452,11 @@
       <c r="I26" s="17">
         <v>0</v>
       </c>
-      <c r="J26" s="17">
-        <v>0</v>
-      </c>
-      <c r="K26" s="17" t="s">
-        <v>18</v>
+      <c r="J26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="17">
+        <v>0</v>
       </c>
       <c r="L26" s="17">
         <v>0</v>
@@ -1468,44 +1468,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15">
-        <v>9799540</v>
+        <v>9673622</v>
       </c>
       <c r="F27" s="15">
-        <v>9673622</v>
+        <v>6837558</v>
       </c>
       <c r="G27" s="15">
-        <v>6837558</v>
+        <v>6323656</v>
       </c>
       <c r="H27" s="15">
-        <v>6323656</v>
+        <v>16092838</v>
       </c>
       <c r="I27" s="15">
-        <v>16092838</v>
+        <v>7693706</v>
       </c>
       <c r="J27" s="15">
-        <v>7693706</v>
+        <v>14370244</v>
       </c>
       <c r="K27" s="15">
-        <v>14370244</v>
+        <v>12781432</v>
       </c>
       <c r="L27" s="15">
-        <v>12781432</v>
+        <v>12916404</v>
       </c>
       <c r="M27" s="15">
-        <v>12916404</v>
+        <v>18651352</v>
       </c>
       <c r="N27" s="15">
-        <v>18651362</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14613323</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1520,7 +1520,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1535,7 +1535,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1550,7 +1550,7 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>40</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1602,7 +1602,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>41</v>
       </c>
@@ -1619,7 +1619,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
@@ -1642,23 +1642,23 @@
       <c r="I34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="11" t="s">
-        <v>18</v>
+      <c r="J34" s="11">
+        <v>181</v>
       </c>
       <c r="K34" s="11">
-        <v>181</v>
+        <v>16333</v>
       </c>
       <c r="L34" s="11">
-        <v>16333</v>
+        <v>51558</v>
       </c>
       <c r="M34" s="11">
-        <v>51558</v>
+        <v>148571</v>
       </c>
       <c r="N34" s="11">
-        <v>148571</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>92822</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="12" t="s">
         <v>19</v>
       </c>
@@ -1667,23 +1667,23 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>27275</v>
+        <v>21921</v>
       </c>
       <c r="F35" s="13">
-        <v>21921</v>
+        <v>28038</v>
       </c>
       <c r="G35" s="13">
-        <v>28038</v>
+        <v>37998</v>
       </c>
       <c r="H35" s="13">
-        <v>37998</v>
+        <v>28447</v>
       </c>
       <c r="I35" s="13">
-        <v>28447</v>
-      </c>
-      <c r="J35" s="13">
         <v>4539</v>
       </c>
+      <c r="J35" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K35" s="13" t="s">
         <v>18</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>21</v>
       </c>
@@ -1706,23 +1706,23 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>125837</v>
+        <v>207970</v>
       </c>
       <c r="F36" s="11">
-        <v>207970</v>
+        <v>102821</v>
       </c>
       <c r="G36" s="11">
-        <v>102821</v>
+        <v>116683</v>
       </c>
       <c r="H36" s="11">
-        <v>116683</v>
+        <v>217280</v>
       </c>
       <c r="I36" s="11">
-        <v>217280</v>
-      </c>
-      <c r="J36" s="11">
         <v>384582</v>
       </c>
+      <c r="J36" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K36" s="11" t="s">
         <v>18</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>23</v>
       </c>
@@ -1745,37 +1745,37 @@
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="13">
-        <v>666004</v>
+        <v>734925</v>
       </c>
       <c r="F37" s="13">
-        <v>734925</v>
+        <v>1093155</v>
       </c>
       <c r="G37" s="13">
-        <v>1093155</v>
+        <v>1032157</v>
       </c>
       <c r="H37" s="13">
-        <v>1032157</v>
+        <v>1504000</v>
       </c>
       <c r="I37" s="13">
-        <v>1504000</v>
+        <v>1467258</v>
       </c>
       <c r="J37" s="13">
-        <v>1467258</v>
+        <v>1404538</v>
       </c>
       <c r="K37" s="13">
-        <v>1404538</v>
+        <v>1555505</v>
       </c>
       <c r="L37" s="13">
-        <v>1555505</v>
+        <v>1893337</v>
       </c>
       <c r="M37" s="13">
-        <v>1893337</v>
+        <v>1883974</v>
       </c>
       <c r="N37" s="13">
-        <v>1883974</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1840522</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>25</v>
       </c>
@@ -1784,37 +1784,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>3124787</v>
+        <v>3846374</v>
       </c>
       <c r="F38" s="11">
-        <v>3846374</v>
+        <v>3319082</v>
       </c>
       <c r="G38" s="11">
-        <v>3319082</v>
+        <v>3293084</v>
       </c>
       <c r="H38" s="11">
-        <v>3293084</v>
+        <v>5153096</v>
       </c>
       <c r="I38" s="11">
-        <v>5153096</v>
+        <v>5776403</v>
       </c>
       <c r="J38" s="11">
-        <v>5776403</v>
+        <v>6379298</v>
       </c>
       <c r="K38" s="11">
-        <v>6379298</v>
+        <v>6098717</v>
       </c>
       <c r="L38" s="11">
-        <v>6098717</v>
+        <v>9151161</v>
       </c>
       <c r="M38" s="11">
-        <v>9151161</v>
+        <v>13001497</v>
       </c>
       <c r="N38" s="11">
-        <v>13001497</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12504790</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>26</v>
       </c>
@@ -1828,8 +1828,8 @@
       <c r="F39" s="13">
         <v>0</v>
       </c>
-      <c r="G39" s="13">
-        <v>0</v>
+      <c r="G39" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>18</v>
@@ -1853,7 +1853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>28</v>
       </c>
@@ -1876,60 +1876,60 @@
       <c r="I40" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11">
+        <v>424586</v>
       </c>
       <c r="K40" s="11">
-        <v>424586</v>
+        <v>486142</v>
       </c>
       <c r="L40" s="11">
-        <v>486142</v>
+        <v>443210</v>
       </c>
       <c r="M40" s="11">
-        <v>443210</v>
+        <v>1082790</v>
       </c>
       <c r="N40" s="11">
-        <v>1082790</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+        <v>785196</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15">
-        <v>3943903</v>
+        <v>4811190</v>
       </c>
       <c r="F41" s="15">
-        <v>4811190</v>
+        <v>4543096</v>
       </c>
       <c r="G41" s="15">
-        <v>4543096</v>
+        <v>4479922</v>
       </c>
       <c r="H41" s="15">
-        <v>4479922</v>
+        <v>6902823</v>
       </c>
       <c r="I41" s="15">
-        <v>6902823</v>
+        <v>7632782</v>
       </c>
       <c r="J41" s="15">
-        <v>7632782</v>
+        <v>8208603</v>
       </c>
       <c r="K41" s="15">
-        <v>8208603</v>
+        <v>8156697</v>
       </c>
       <c r="L41" s="15">
-        <v>8156697</v>
+        <v>11539266</v>
       </c>
       <c r="M41" s="15">
-        <v>11539266</v>
+        <v>16116832</v>
       </c>
       <c r="N41" s="15">
-        <v>16116832</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15223330</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>43</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>23</v>
       </c>
@@ -1966,8 +1966,8 @@
       <c r="H43" s="11">
         <v>0</v>
       </c>
-      <c r="I43" s="11">
-        <v>0</v>
+      <c r="I43" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>18</v>
@@ -1985,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="12" t="s">
         <v>25</v>
       </c>
@@ -2005,8 +2005,8 @@
       <c r="H44" s="13">
         <v>0</v>
       </c>
-      <c r="I44" s="13">
-        <v>0</v>
+      <c r="I44" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J44" s="13" t="s">
         <v>18</v>
@@ -2024,7 +2024,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="16" t="s">
         <v>33</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>44</v>
       </c>
@@ -2078,7 +2078,7 @@
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>35</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>36</v>
       </c>
@@ -2135,8 +2135,8 @@
       <c r="H48" s="15">
         <v>0</v>
       </c>
-      <c r="I48" s="15">
-        <v>0</v>
+      <c r="I48" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J48" s="15" t="s">
         <v>18</v>
@@ -2154,7 +2154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="16" t="s">
         <v>38</v>
       </c>
@@ -2177,11 +2177,11 @@
       <c r="I49" s="17">
         <v>0</v>
       </c>
-      <c r="J49" s="17">
-        <v>0</v>
-      </c>
-      <c r="K49" s="17" t="s">
-        <v>18</v>
+      <c r="J49" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K49" s="17">
+        <v>0</v>
       </c>
       <c r="L49" s="17">
         <v>0</v>
@@ -2193,44 +2193,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15">
-        <v>3943903</v>
+        <v>4811190</v>
       </c>
       <c r="F50" s="15">
-        <v>4811190</v>
+        <v>4543096</v>
       </c>
       <c r="G50" s="15">
-        <v>4543096</v>
+        <v>4479922</v>
       </c>
       <c r="H50" s="15">
-        <v>4479922</v>
+        <v>6902823</v>
       </c>
       <c r="I50" s="15">
-        <v>6902823</v>
+        <v>7632782</v>
       </c>
       <c r="J50" s="15">
-        <v>7632782</v>
+        <v>8208603</v>
       </c>
       <c r="K50" s="15">
-        <v>8208603</v>
+        <v>8156697</v>
       </c>
       <c r="L50" s="15">
-        <v>8156697</v>
+        <v>11539266</v>
       </c>
       <c r="M50" s="15">
-        <v>11539266</v>
+        <v>16116832</v>
       </c>
       <c r="N50" s="15">
-        <v>16116832</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15223330</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2245,7 +2245,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2260,7 +2260,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2275,7 +2275,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>45</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2327,7 +2327,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>46</v>
       </c>
@@ -2344,7 +2344,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>16</v>
       </c>
@@ -2367,23 +2367,23 @@
       <c r="I57" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>18</v>
+      <c r="J57" s="11">
+        <v>607383</v>
       </c>
       <c r="K57" s="11">
-        <v>607383</v>
+        <v>594944</v>
       </c>
       <c r="L57" s="11">
-        <v>594944</v>
+        <v>1194468</v>
       </c>
       <c r="M57" s="11">
-        <v>1194468</v>
+        <v>657728</v>
       </c>
       <c r="N57" s="11">
-        <v>657699</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>504481</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>19</v>
       </c>
@@ -2392,23 +2392,23 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>606192</v>
+        <v>569125</v>
       </c>
       <c r="F58" s="13">
-        <v>569125</v>
+        <v>566150</v>
       </c>
       <c r="G58" s="13">
-        <v>566150</v>
+        <v>604688</v>
       </c>
       <c r="H58" s="13">
-        <v>604688</v>
+        <v>31952</v>
       </c>
       <c r="I58" s="13">
-        <v>31952</v>
-      </c>
-      <c r="J58" s="13">
         <v>-5445</v>
       </c>
+      <c r="J58" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K58" s="13" t="s">
         <v>18</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>21</v>
       </c>
@@ -2431,23 +2431,23 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>71740</v>
+        <v>95035</v>
       </c>
       <c r="F59" s="11">
-        <v>95035</v>
+        <v>85235</v>
       </c>
       <c r="G59" s="11">
-        <v>85235</v>
+        <v>91560</v>
       </c>
       <c r="H59" s="11">
-        <v>91560</v>
+        <v>145226</v>
       </c>
       <c r="I59" s="11">
-        <v>145226</v>
-      </c>
-      <c r="J59" s="11">
         <v>76287</v>
       </c>
+      <c r="J59" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K59" s="11" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>23</v>
       </c>
@@ -2470,37 +2470,37 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>426271</v>
+        <v>456192</v>
       </c>
       <c r="F60" s="13">
-        <v>456192</v>
+        <v>653385</v>
       </c>
       <c r="G60" s="13">
-        <v>653385</v>
+        <v>691408</v>
       </c>
       <c r="H60" s="13">
-        <v>691408</v>
+        <v>426364</v>
       </c>
       <c r="I60" s="13">
-        <v>426364</v>
+        <v>2191697</v>
       </c>
       <c r="J60" s="13">
-        <v>2191697</v>
+        <v>737439</v>
       </c>
       <c r="K60" s="13">
-        <v>737439</v>
+        <v>809436</v>
       </c>
       <c r="L60" s="13">
-        <v>809436</v>
+        <v>944672</v>
       </c>
       <c r="M60" s="13">
-        <v>944672</v>
+        <v>905505</v>
       </c>
       <c r="N60" s="13">
-        <v>905505</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1071251</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>25</v>
       </c>
@@ -2509,37 +2509,37 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
-        <v>485361</v>
+        <v>659105</v>
       </c>
       <c r="F61" s="11">
-        <v>659105</v>
+        <v>849164</v>
       </c>
       <c r="G61" s="11">
-        <v>849164</v>
+        <v>942606</v>
       </c>
       <c r="H61" s="11">
-        <v>942606</v>
+        <v>506253</v>
       </c>
       <c r="I61" s="11">
-        <v>506253</v>
+        <v>2050901</v>
       </c>
       <c r="J61" s="11">
-        <v>2050901</v>
+        <v>784791</v>
       </c>
       <c r="K61" s="11">
-        <v>784791</v>
+        <v>949140</v>
       </c>
       <c r="L61" s="11">
-        <v>949140</v>
+        <v>1250682</v>
       </c>
       <c r="M61" s="11">
-        <v>1250682</v>
+        <v>1395011</v>
       </c>
       <c r="N61" s="11">
-        <v>1395011</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1549892</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>26</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>28</v>
       </c>
@@ -2601,23 +2601,23 @@
       <c r="I63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="11" t="s">
-        <v>18</v>
+      <c r="J63" s="11">
+        <v>97906</v>
       </c>
       <c r="K63" s="11">
-        <v>97906</v>
+        <v>110318</v>
       </c>
       <c r="L63" s="11">
-        <v>110318</v>
+        <v>124775</v>
       </c>
       <c r="M63" s="11">
-        <v>124775</v>
+        <v>154136</v>
       </c>
       <c r="N63" s="11">
-        <v>154136</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169112</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>53</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>23</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>25</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2727,7 +2727,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2742,7 +2742,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -2757,7 +2757,7 @@
       <c r="M69" s="1"/>
       <c r="N69" s="1"/>
     </row>
-    <row r="70" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B70" s="7" t="s">
         <v>55</v>
       </c>
@@ -2794,7 +2794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2809,7 +2809,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>56</v>
       </c>
@@ -2826,7 +2826,7 @@
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>16</v>
       </c>
@@ -2849,23 +2849,23 @@
       <c r="I73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="11" t="s">
-        <v>18</v>
+      <c r="J73" s="11">
+        <v>-190</v>
       </c>
       <c r="K73" s="11">
-        <v>-190</v>
+        <v>-6225</v>
       </c>
       <c r="L73" s="11">
-        <v>-6225</v>
+        <v>-41330</v>
       </c>
       <c r="M73" s="11">
-        <v>-41330</v>
+        <v>-251217</v>
       </c>
       <c r="N73" s="11">
-        <v>-251217</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-53794</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>19</v>
       </c>
@@ -2874,23 +2874,23 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13">
-        <v>-27415</v>
+        <v>-23227</v>
       </c>
       <c r="F74" s="13">
-        <v>-23227</v>
+        <v>-34457</v>
       </c>
       <c r="G74" s="13">
-        <v>-34457</v>
+        <v>-32413</v>
       </c>
       <c r="H74" s="13">
-        <v>-32413</v>
+        <v>-30760</v>
       </c>
       <c r="I74" s="13">
-        <v>-30760</v>
-      </c>
-      <c r="J74" s="13">
         <v>-4972</v>
       </c>
+      <c r="J74" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K74" s="13" t="s">
         <v>18</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>21</v>
       </c>
@@ -2913,23 +2913,23 @@
       </c>
       <c r="D75" s="11"/>
       <c r="E75" s="11">
-        <v>-86304</v>
+        <v>-117469</v>
       </c>
       <c r="F75" s="11">
-        <v>-117469</v>
+        <v>-64253</v>
       </c>
       <c r="G75" s="11">
-        <v>-64253</v>
+        <v>-83410</v>
       </c>
       <c r="H75" s="11">
-        <v>-83410</v>
+        <v>-170311</v>
       </c>
       <c r="I75" s="11">
-        <v>-170311</v>
-      </c>
-      <c r="J75" s="11">
         <v>-241459</v>
       </c>
+      <c r="J75" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K75" s="11" t="s">
         <v>18</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>23</v>
       </c>
@@ -2952,37 +2952,37 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="13">
-        <v>-336817</v>
+        <v>-392524</v>
       </c>
       <c r="F76" s="13">
-        <v>-392524</v>
+        <v>-521514</v>
       </c>
       <c r="G76" s="13">
-        <v>-521514</v>
+        <v>-490960</v>
       </c>
       <c r="H76" s="13">
-        <v>-490960</v>
+        <v>-886140</v>
       </c>
       <c r="I76" s="13">
-        <v>-886140</v>
+        <v>-739372</v>
       </c>
       <c r="J76" s="13">
-        <v>-739372</v>
+        <v>-712295</v>
       </c>
       <c r="K76" s="13">
-        <v>-712295</v>
+        <v>-763786</v>
       </c>
       <c r="L76" s="13">
-        <v>-763786</v>
+        <v>-886703</v>
       </c>
       <c r="M76" s="13">
-        <v>-886703</v>
+        <v>-915089</v>
       </c>
       <c r="N76" s="13">
-        <v>-915089</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-893850</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>25</v>
       </c>
@@ -2991,37 +2991,37 @@
       </c>
       <c r="D77" s="11"/>
       <c r="E77" s="11">
-        <v>-1034862</v>
+        <v>-1396146</v>
       </c>
       <c r="F77" s="11">
-        <v>-1396146</v>
+        <v>-1119778</v>
       </c>
       <c r="G77" s="11">
-        <v>-1119778</v>
+        <v>-1144221</v>
       </c>
       <c r="H77" s="11">
-        <v>-1144221</v>
+        <v>-1862850</v>
       </c>
       <c r="I77" s="11">
-        <v>-1862850</v>
+        <v>-2047298</v>
       </c>
       <c r="J77" s="11">
-        <v>-2047298</v>
+        <v>-2438638</v>
       </c>
       <c r="K77" s="11">
-        <v>-2438638</v>
+        <v>-2354160</v>
       </c>
       <c r="L77" s="11">
-        <v>-2354160</v>
+        <v>-2678521</v>
       </c>
       <c r="M77" s="11">
-        <v>-2678521</v>
+        <v>-3945435</v>
       </c>
       <c r="N77" s="11">
-        <v>-3945435</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4009205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>26</v>
       </c>
@@ -3035,8 +3035,8 @@
       <c r="F78" s="13">
         <v>0</v>
       </c>
-      <c r="G78" s="13">
-        <v>0</v>
+      <c r="G78" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>18</v>
@@ -3060,7 +3060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>28</v>
       </c>
@@ -3083,60 +3083,60 @@
       <c r="I79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="11" t="s">
-        <v>18</v>
+      <c r="J79" s="11">
+        <v>-298100</v>
       </c>
       <c r="K79" s="11">
-        <v>-298100</v>
+        <v>-384457</v>
       </c>
       <c r="L79" s="11">
-        <v>-384457</v>
+        <v>-347823</v>
       </c>
       <c r="M79" s="11">
-        <v>-347823</v>
+        <v>-591350</v>
       </c>
       <c r="N79" s="11">
-        <v>-591350</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-533905</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>-1485398</v>
+        <v>-1929366</v>
       </c>
       <c r="F80" s="15">
-        <v>-1929366</v>
+        <v>-1740002</v>
       </c>
       <c r="G80" s="15">
-        <v>-1740002</v>
+        <v>-1751004</v>
       </c>
       <c r="H80" s="15">
-        <v>-1751004</v>
+        <v>-2950061</v>
       </c>
       <c r="I80" s="15">
-        <v>-2950061</v>
+        <v>-3033101</v>
       </c>
       <c r="J80" s="15">
-        <v>-3033101</v>
+        <v>-3449223</v>
       </c>
       <c r="K80" s="15">
-        <v>-3449223</v>
+        <v>-3508628</v>
       </c>
       <c r="L80" s="15">
-        <v>-3508628</v>
+        <v>-3954377</v>
       </c>
       <c r="M80" s="15">
-        <v>-3954377</v>
+        <v>-5703091</v>
       </c>
       <c r="N80" s="15">
-        <v>-5703091</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5490754</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>58</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>23</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="H82" s="11">
         <v>0</v>
       </c>
-      <c r="I82" s="11">
-        <v>0</v>
+      <c r="I82" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J82" s="11" t="s">
         <v>18</v>
@@ -3192,7 +3192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>25</v>
       </c>
@@ -3212,8 +3212,8 @@
       <c r="H83" s="13">
         <v>0</v>
       </c>
-      <c r="I83" s="13">
-        <v>0</v>
+      <c r="I83" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J83" s="13" t="s">
         <v>18</v>
@@ -3231,7 +3231,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="16" t="s">
         <v>59</v>
       </c>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>60</v>
       </c>
@@ -3285,7 +3285,7 @@
       <c r="M85" s="19"/>
       <c r="N85" s="19"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="16" t="s">
         <v>61</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="14" t="s">
         <v>36</v>
       </c>
@@ -3342,8 +3342,8 @@
       <c r="H87" s="15">
         <v>0</v>
       </c>
-      <c r="I87" s="15">
-        <v>0</v>
+      <c r="I87" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="J87" s="15" t="s">
         <v>18</v>
@@ -3361,7 +3361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>38</v>
       </c>
@@ -3384,11 +3384,11 @@
       <c r="I88" s="17">
         <v>0</v>
       </c>
-      <c r="J88" s="17">
-        <v>0</v>
-      </c>
-      <c r="K88" s="17" t="s">
-        <v>18</v>
+      <c r="J88" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K88" s="17">
+        <v>0</v>
       </c>
       <c r="L88" s="17">
         <v>0</v>
@@ -3400,44 +3400,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15">
-        <v>-1485398</v>
+        <v>-1929366</v>
       </c>
       <c r="F89" s="15">
-        <v>-1929366</v>
+        <v>-1740002</v>
       </c>
       <c r="G89" s="15">
-        <v>-1740002</v>
+        <v>-1751004</v>
       </c>
       <c r="H89" s="15">
-        <v>-1751004</v>
+        <v>-2950061</v>
       </c>
       <c r="I89" s="15">
-        <v>-2950061</v>
+        <v>-3033101</v>
       </c>
       <c r="J89" s="15">
-        <v>-3033101</v>
+        <v>-3449223</v>
       </c>
       <c r="K89" s="15">
-        <v>-3449223</v>
+        <v>-3508628</v>
       </c>
       <c r="L89" s="15">
-        <v>-3508628</v>
+        <v>-3954377</v>
       </c>
       <c r="M89" s="15">
-        <v>-3954377</v>
+        <v>-5703091</v>
       </c>
       <c r="N89" s="15">
-        <v>-5703091</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5490754</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3452,7 +3452,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3467,7 +3467,7 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3482,7 +3482,7 @@
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
     </row>
-    <row r="93" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B93" s="7" t="s">
         <v>62</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3534,7 +3534,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="8" t="s">
         <v>63</v>
       </c>
@@ -3551,7 +3551,7 @@
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="10" t="s">
         <v>16</v>
       </c>
@@ -3574,23 +3574,23 @@
       <c r="I96" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J96" s="11" t="s">
-        <v>18</v>
+      <c r="J96" s="11">
+        <v>-9</v>
       </c>
       <c r="K96" s="11">
-        <v>-9</v>
+        <v>10108</v>
       </c>
       <c r="L96" s="11">
-        <v>10108</v>
+        <v>10228</v>
       </c>
       <c r="M96" s="11">
-        <v>10228</v>
+        <v>-102646</v>
       </c>
       <c r="N96" s="11">
-        <v>-102646</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39028</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="12" t="s">
         <v>19</v>
       </c>
@@ -3599,23 +3599,23 @@
       </c>
       <c r="D97" s="13"/>
       <c r="E97" s="13">
-        <v>-140</v>
+        <v>-1306</v>
       </c>
       <c r="F97" s="13">
-        <v>-1306</v>
+        <v>-6419</v>
       </c>
       <c r="G97" s="13">
-        <v>-6419</v>
+        <v>5585</v>
       </c>
       <c r="H97" s="13">
-        <v>5585</v>
+        <v>-2313</v>
       </c>
       <c r="I97" s="13">
-        <v>-2313</v>
-      </c>
-      <c r="J97" s="13">
         <v>-433</v>
       </c>
+      <c r="J97" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K97" s="13" t="s">
         <v>18</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>21</v>
       </c>
@@ -3638,23 +3638,23 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11">
-        <v>39533</v>
+        <v>90501</v>
       </c>
       <c r="F98" s="11">
-        <v>90501</v>
+        <v>38568</v>
       </c>
       <c r="G98" s="11">
-        <v>38568</v>
+        <v>33273</v>
       </c>
       <c r="H98" s="11">
-        <v>33273</v>
+        <v>46969</v>
       </c>
       <c r="I98" s="11">
-        <v>46969</v>
-      </c>
-      <c r="J98" s="11">
         <v>143123</v>
       </c>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K98" s="11" t="s">
         <v>18</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>23</v>
       </c>
@@ -3677,37 +3677,37 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13">
-        <v>329187</v>
+        <v>342401</v>
       </c>
       <c r="F99" s="13">
-        <v>342401</v>
+        <v>571641</v>
       </c>
       <c r="G99" s="13">
-        <v>571641</v>
+        <v>541197</v>
       </c>
       <c r="H99" s="13">
-        <v>541197</v>
+        <v>617860</v>
       </c>
       <c r="I99" s="13">
-        <v>617860</v>
+        <v>727886</v>
       </c>
       <c r="J99" s="13">
-        <v>727886</v>
+        <v>692243</v>
       </c>
       <c r="K99" s="13">
-        <v>692243</v>
+        <v>791719</v>
       </c>
       <c r="L99" s="13">
-        <v>791719</v>
+        <v>1006634</v>
       </c>
       <c r="M99" s="13">
-        <v>1006634</v>
+        <v>968885</v>
       </c>
       <c r="N99" s="13">
-        <v>968885</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>946672</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>25</v>
       </c>
@@ -3716,37 +3716,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>2089925</v>
+        <v>2450228</v>
       </c>
       <c r="F100" s="11">
-        <v>2450228</v>
+        <v>2199304</v>
       </c>
       <c r="G100" s="11">
-        <v>2199304</v>
+        <v>2148863</v>
       </c>
       <c r="H100" s="11">
-        <v>2148863</v>
+        <v>3290245</v>
       </c>
       <c r="I100" s="11">
-        <v>3290245</v>
+        <v>3729105</v>
       </c>
       <c r="J100" s="11">
-        <v>3729105</v>
+        <v>3940660</v>
       </c>
       <c r="K100" s="11">
-        <v>3940660</v>
+        <v>3744557</v>
       </c>
       <c r="L100" s="11">
-        <v>3744557</v>
+        <v>6472640</v>
       </c>
       <c r="M100" s="11">
-        <v>6472640</v>
+        <v>9056062</v>
       </c>
       <c r="N100" s="11">
-        <v>9056062</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8495585</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>26</v>
       </c>
@@ -3760,8 +3760,8 @@
       <c r="F101" s="13">
         <v>0</v>
       </c>
-      <c r="G101" s="13">
-        <v>0</v>
+      <c r="G101" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="H101" s="13" t="s">
         <v>18</v>
@@ -3785,7 +3785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>28</v>
       </c>
@@ -3808,60 +3808,60 @@
       <c r="I102" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J102" s="11" t="s">
-        <v>18</v>
+      <c r="J102" s="11">
+        <v>126486</v>
       </c>
       <c r="K102" s="11">
-        <v>126486</v>
+        <v>101685</v>
       </c>
       <c r="L102" s="11">
-        <v>101685</v>
+        <v>95387</v>
       </c>
       <c r="M102" s="11">
-        <v>95387</v>
+        <v>491440</v>
       </c>
       <c r="N102" s="11">
-        <v>491440</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>251291</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>2458505</v>
+        <v>2881824</v>
       </c>
       <c r="F103" s="15">
-        <v>2881824</v>
+        <v>2803094</v>
       </c>
       <c r="G103" s="15">
-        <v>2803094</v>
+        <v>2728918</v>
       </c>
       <c r="H103" s="15">
-        <v>2728918</v>
+        <v>3952761</v>
       </c>
       <c r="I103" s="15">
-        <v>3952761</v>
+        <v>4599681</v>
       </c>
       <c r="J103" s="15">
-        <v>4599681</v>
+        <v>4759380</v>
       </c>
       <c r="K103" s="15">
-        <v>4759380</v>
+        <v>4648069</v>
       </c>
       <c r="L103" s="15">
-        <v>4648069</v>
+        <v>7584889</v>
       </c>
       <c r="M103" s="15">
-        <v>7584889</v>
+        <v>10413741</v>
       </c>
       <c r="N103" s="15">
-        <v>10413741</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9732576</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="8" t="s">
         <v>65</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>23</v>
       </c>
@@ -3898,8 +3898,8 @@
       <c r="H105" s="11">
         <v>0</v>
       </c>
-      <c r="I105" s="11">
-        <v>0</v>
+      <c r="I105" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J105" s="11" t="s">
         <v>18</v>
@@ -3917,7 +3917,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>25</v>
       </c>
@@ -3937,8 +3937,8 @@
       <c r="H106" s="13">
         <v>0</v>
       </c>
-      <c r="I106" s="13">
-        <v>0</v>
+      <c r="I106" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="J106" s="13" t="s">
         <v>18</v>
@@ -3956,7 +3956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="16" t="s">
         <v>66</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="18" t="s">
         <v>67</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="M108" s="19"/>
       <c r="N108" s="19"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="16" t="s">
         <v>68</v>
       </c>
@@ -4047,41 +4047,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C110" s="15"/>
       <c r="D110" s="15"/>
       <c r="E110" s="15">
-        <v>2458505</v>
+        <v>2881824</v>
       </c>
       <c r="F110" s="15">
-        <v>2881824</v>
+        <v>2803094</v>
       </c>
       <c r="G110" s="15">
-        <v>2803094</v>
+        <v>2728918</v>
       </c>
       <c r="H110" s="15">
-        <v>2728918</v>
+        <v>3952761</v>
       </c>
       <c r="I110" s="15">
-        <v>3952761</v>
+        <v>4599681</v>
       </c>
       <c r="J110" s="15">
-        <v>4599681</v>
+        <v>4759380</v>
       </c>
       <c r="K110" s="15">
-        <v>4759380</v>
+        <v>4648069</v>
       </c>
       <c r="L110" s="15">
-        <v>4648069</v>
+        <v>7584889</v>
       </c>
       <c r="M110" s="15">
-        <v>7584889</v>
+        <v>10413741</v>
       </c>
       <c r="N110" s="15">
-        <v>10413741</v>
+        <v>9732576</v>
       </c>
     </row>
   </sheetData>
